--- a/files/equipe.xlsx
+++ b/files/equipe.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28209"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projetos_estudo\tcc-ibmr-2024\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2739C4-47EF-4B74-8CF7-1870DDC621F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{EA2739C4-47EF-4B74-8CF7-1870DDC621F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB15D41-B78E-490C-B576-D7089126BFE3}"/>
   <bookViews>
     <workbookView xWindow="2508" yWindow="2508" windowWidth="9528" windowHeight="6000" xr2:uid="{295DC67A-7C23-4671-998C-AF698379DF56}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,7 +94,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -430,20 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B558B5-DE17-4A1A-A652-249156ED66A5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A482" workbookViewId="0">
+      <selection activeCell="B489" sqref="B489:C501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,6 +453,5402 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2">
+        <v>3477</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5592</v>
+      </c>
+      <c r="C2">
+        <v>6661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3">
+        <v>6974</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6206</v>
+      </c>
+      <c r="C3">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4">
+        <v>4573</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4536</v>
+      </c>
+      <c r="C4">
+        <v>7126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5">
+        <v>5163</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3072</v>
+      </c>
+      <c r="C5">
+        <v>7551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6">
+        <v>1741</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5921</v>
+      </c>
+      <c r="C6">
+        <v>9273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7">
+        <v>5082</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3880</v>
+      </c>
+      <c r="C7">
+        <v>8651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8">
+        <v>2902</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7529</v>
+      </c>
+      <c r="C8">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9">
+        <v>2395</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4984</v>
+      </c>
+      <c r="C9">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10">
+        <v>8019</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3428</v>
+      </c>
+      <c r="C10">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11">
+        <v>9397</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4116</v>
+      </c>
+      <c r="C11">
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12">
+        <v>1211</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3254</v>
+      </c>
+      <c r="C12">
+        <v>7319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13">
+        <v>1072</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4328</v>
+      </c>
+      <c r="C13">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14">
+        <v>2799</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5263</v>
+      </c>
+      <c r="C14">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15">
+        <v>7139</v>
+      </c>
+      <c r="B15" s="2">
+        <v>4036</v>
+      </c>
+      <c r="C15">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16">
+        <v>1873</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2518</v>
+      </c>
+      <c r="C16">
+        <v>7378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17">
+        <v>5855</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2150</v>
+      </c>
+      <c r="C17">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18">
+        <v>2033</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2215</v>
+      </c>
+      <c r="C18">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19">
+        <v>8988</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1848</v>
+      </c>
+      <c r="C19">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20">
+        <v>4634</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C20">
+        <v>7541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21">
+        <v>2976</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2604</v>
+      </c>
+      <c r="C21">
+        <v>7207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22">
+        <v>5561</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5323</v>
+      </c>
+      <c r="C22">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23">
+        <v>9577</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5253</v>
+      </c>
+      <c r="C23">
+        <v>7293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24">
+        <v>1127</v>
+      </c>
+      <c r="B24" s="2">
+        <v>8465</v>
+      </c>
+      <c r="C24">
+        <v>9822</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25">
+        <v>5249</v>
+      </c>
+      <c r="B25" s="2">
+        <v>7922</v>
+      </c>
+      <c r="C25">
+        <v>9312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26">
+        <v>5148</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7932</v>
+      </c>
+      <c r="C26">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27">
+        <v>8011</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8621</v>
+      </c>
+      <c r="C27">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28">
+        <v>5327</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9665</v>
+      </c>
+      <c r="C28">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29">
+        <v>4236</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1437</v>
+      </c>
+      <c r="C29">
+        <v>6734</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30">
+        <v>4326</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9931</v>
+      </c>
+      <c r="C30">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31">
+        <v>8063</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9333</v>
+      </c>
+      <c r="C31">
+        <v>7466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32">
+        <v>8066</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1860</v>
+      </c>
+      <c r="C32">
+        <v>9473</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33">
+        <v>1995</v>
+      </c>
+      <c r="B33" s="2">
+        <v>6376</v>
+      </c>
+      <c r="C33">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34">
+        <v>3061</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2104</v>
+      </c>
+      <c r="C34">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35">
+        <v>3144</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1243</v>
+      </c>
+      <c r="C35">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36">
+        <v>6728</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8791</v>
+      </c>
+      <c r="C36">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37">
+        <v>3783</v>
+      </c>
+      <c r="B37" s="2">
+        <v>9627</v>
+      </c>
+      <c r="C37">
+        <v>5987</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38">
+        <v>4340</v>
+      </c>
+      <c r="B38" s="2">
+        <v>4657</v>
+      </c>
+      <c r="C38">
+        <v>9372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39">
+        <v>2830</v>
+      </c>
+      <c r="B39" s="2">
+        <v>4507</v>
+      </c>
+      <c r="C39">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40">
+        <v>8057</v>
+      </c>
+      <c r="B40" s="2">
+        <v>9995</v>
+      </c>
+      <c r="C40">
+        <v>7087</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41">
+        <v>2061</v>
+      </c>
+      <c r="B41" s="2">
+        <v>7049</v>
+      </c>
+      <c r="C41">
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42">
+        <v>2109</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5254</v>
+      </c>
+      <c r="C42">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43">
+        <v>6746</v>
+      </c>
+      <c r="B43" s="2">
+        <v>8098</v>
+      </c>
+      <c r="C43">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44">
+        <v>2408</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5608</v>
+      </c>
+      <c r="C44">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45">
+        <v>8899</v>
+      </c>
+      <c r="B45" s="2">
+        <v>5254</v>
+      </c>
+      <c r="C45">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46">
+        <v>5991</v>
+      </c>
+      <c r="B46" s="2">
+        <v>1823</v>
+      </c>
+      <c r="C46">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="A47">
+        <v>7379</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8046</v>
+      </c>
+      <c r="C47">
+        <v>9588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48">
+        <v>8117</v>
+      </c>
+      <c r="B48" s="2">
+        <v>8041</v>
+      </c>
+      <c r="C48">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49">
+        <v>8244</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5052</v>
+      </c>
+      <c r="C49">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="A50">
+        <v>2974</v>
+      </c>
+      <c r="B50" s="2">
+        <v>8855</v>
+      </c>
+      <c r="C50">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51">
+        <v>5142</v>
+      </c>
+      <c r="B51" s="2">
+        <v>2025</v>
+      </c>
+      <c r="C51">
+        <v>7626</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52">
+        <v>7399</v>
+      </c>
+      <c r="B52" s="2">
+        <v>2910</v>
+      </c>
+      <c r="C52">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="A53">
+        <v>2094</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1888</v>
+      </c>
+      <c r="C53">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54">
+        <v>7537</v>
+      </c>
+      <c r="B54" s="2">
+        <v>7916</v>
+      </c>
+      <c r="C54">
+        <v>4615</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55">
+        <v>5759</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1317</v>
+      </c>
+      <c r="C55">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56">
+        <v>4551</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8850</v>
+      </c>
+      <c r="C56">
+        <v>4889</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="A57">
+        <v>6331</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8934</v>
+      </c>
+      <c r="C57">
+        <v>8881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58">
+        <v>9800</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3680</v>
+      </c>
+      <c r="C58">
+        <v>7563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59">
+        <v>2696</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3381</v>
+      </c>
+      <c r="C59">
+        <v>6992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60">
+        <v>6212</v>
+      </c>
+      <c r="B60" s="2">
+        <v>9095</v>
+      </c>
+      <c r="C60">
+        <v>9086</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15">
+      <c r="A61">
+        <v>5255</v>
+      </c>
+      <c r="B61" s="2">
+        <v>9068</v>
+      </c>
+      <c r="C61">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15">
+      <c r="A62">
+        <v>2567</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5853</v>
+      </c>
+      <c r="C62">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15">
+      <c r="A63">
+        <v>2359</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3375</v>
+      </c>
+      <c r="C63">
+        <v>6437</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15">
+      <c r="A64">
+        <v>3379</v>
+      </c>
+      <c r="B64" s="2">
+        <v>5512</v>
+      </c>
+      <c r="C64">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15">
+      <c r="A65">
+        <v>2619</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1495</v>
+      </c>
+      <c r="C65">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15">
+      <c r="A66">
+        <v>3559</v>
+      </c>
+      <c r="B66" s="2">
+        <v>3778</v>
+      </c>
+      <c r="C66">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15">
+      <c r="A67">
+        <v>1678</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1817</v>
+      </c>
+      <c r="C67">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15">
+      <c r="A68">
+        <v>7816</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4221</v>
+      </c>
+      <c r="C68">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15">
+      <c r="A69">
+        <v>7059</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1167</v>
+      </c>
+      <c r="C69">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15">
+      <c r="A70">
+        <v>5363</v>
+      </c>
+      <c r="B70" s="2">
+        <v>8534</v>
+      </c>
+      <c r="C70">
+        <v>6461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15">
+      <c r="A71">
+        <v>5935</v>
+      </c>
+      <c r="B71" s="2">
+        <v>9599</v>
+      </c>
+      <c r="C71">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15">
+      <c r="A72">
+        <v>4251</v>
+      </c>
+      <c r="B72" s="2">
+        <v>6122</v>
+      </c>
+      <c r="C72">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15">
+      <c r="A73">
+        <v>5900</v>
+      </c>
+      <c r="B73" s="2">
+        <v>5338</v>
+      </c>
+      <c r="C73">
+        <v>7559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15">
+      <c r="A74">
+        <v>9452</v>
+      </c>
+      <c r="B74" s="2">
+        <v>5088</v>
+      </c>
+      <c r="C74">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15">
+      <c r="A75">
+        <v>1212</v>
+      </c>
+      <c r="B75" s="2">
+        <v>7836</v>
+      </c>
+      <c r="C75">
+        <v>7597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15">
+      <c r="A76">
+        <v>1041</v>
+      </c>
+      <c r="B76" s="2">
+        <v>5912</v>
+      </c>
+      <c r="C76">
+        <v>9513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15">
+      <c r="A77">
+        <v>7268</v>
+      </c>
+      <c r="B77" s="2">
+        <v>8832</v>
+      </c>
+      <c r="C77">
+        <v>7069</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15">
+      <c r="A78">
+        <v>8758</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1741</v>
+      </c>
+      <c r="C78">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15">
+      <c r="A79">
+        <v>1168</v>
+      </c>
+      <c r="B79" s="2">
+        <v>8729</v>
+      </c>
+      <c r="C79">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15">
+      <c r="A80">
+        <v>7316</v>
+      </c>
+      <c r="B80" s="2">
+        <v>5266</v>
+      </c>
+      <c r="C80">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15">
+      <c r="A81">
+        <v>3928</v>
+      </c>
+      <c r="B81" s="2">
+        <v>9802</v>
+      </c>
+      <c r="C81">
+        <v>9471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15">
+      <c r="A82">
+        <v>6433</v>
+      </c>
+      <c r="B82" s="2">
+        <v>7045</v>
+      </c>
+      <c r="C82">
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15">
+      <c r="A83">
+        <v>3781</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5572</v>
+      </c>
+      <c r="C83">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15">
+      <c r="A84">
+        <v>4293</v>
+      </c>
+      <c r="B84" s="2">
+        <v>5924</v>
+      </c>
+      <c r="C84">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15">
+      <c r="A85">
+        <v>3154</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1957</v>
+      </c>
+      <c r="C85">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15">
+      <c r="A86">
+        <v>8535</v>
+      </c>
+      <c r="B86" s="2">
+        <v>7319</v>
+      </c>
+      <c r="C86">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15">
+      <c r="A87">
+        <v>1785</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2675</v>
+      </c>
+      <c r="C87">
+        <v>6160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15">
+      <c r="A88">
+        <v>6471</v>
+      </c>
+      <c r="B88" s="2">
+        <v>9424</v>
+      </c>
+      <c r="C88">
+        <v>7438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15">
+      <c r="A89">
+        <v>2529</v>
+      </c>
+      <c r="B89" s="2">
+        <v>9425</v>
+      </c>
+      <c r="C89">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15">
+      <c r="A90">
+        <v>3165</v>
+      </c>
+      <c r="B90" s="2">
+        <v>5777</v>
+      </c>
+      <c r="C90">
+        <v>8043</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15">
+      <c r="A91">
+        <v>9628</v>
+      </c>
+      <c r="B91" s="2">
+        <v>4501</v>
+      </c>
+      <c r="C91">
+        <v>8457</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15">
+      <c r="A92">
+        <v>2483</v>
+      </c>
+      <c r="B92" s="2">
+        <v>5900</v>
+      </c>
+      <c r="C92">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15">
+      <c r="A93">
+        <v>6270</v>
+      </c>
+      <c r="B93" s="2">
+        <v>7749</v>
+      </c>
+      <c r="C93">
+        <v>8631</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15">
+      <c r="A94">
+        <v>3557</v>
+      </c>
+      <c r="B94" s="2">
+        <v>7390</v>
+      </c>
+      <c r="C94">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15">
+      <c r="A95">
+        <v>8824</v>
+      </c>
+      <c r="B95" s="2">
+        <v>9870</v>
+      </c>
+      <c r="C95">
+        <v>9800</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15">
+      <c r="A96">
+        <v>2292</v>
+      </c>
+      <c r="B96" s="2">
+        <v>8516</v>
+      </c>
+      <c r="C96">
+        <v>5952</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15">
+      <c r="A97">
+        <v>7283</v>
+      </c>
+      <c r="B97" s="2">
+        <v>8483</v>
+      </c>
+      <c r="C97">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15">
+      <c r="A98">
+        <v>6457</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2689</v>
+      </c>
+      <c r="C98">
+        <v>6684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15">
+      <c r="A99">
+        <v>3177</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2106</v>
+      </c>
+      <c r="C99">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15">
+      <c r="A100">
+        <v>7721</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5558</v>
+      </c>
+      <c r="C100">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15">
+      <c r="A101">
+        <v>1571</v>
+      </c>
+      <c r="B101" s="2">
+        <v>7074</v>
+      </c>
+      <c r="C101">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15">
+      <c r="A102">
+        <v>7990</v>
+      </c>
+      <c r="B102" s="2">
+        <v>2998</v>
+      </c>
+      <c r="C102">
+        <v>9652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15">
+      <c r="A103">
+        <v>5761</v>
+      </c>
+      <c r="B103" s="2">
+        <v>4614</v>
+      </c>
+      <c r="C103">
+        <v>4538</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15">
+      <c r="A104">
+        <v>5908</v>
+      </c>
+      <c r="B104" s="2">
+        <v>9111</v>
+      </c>
+      <c r="C104">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15">
+      <c r="A105">
+        <v>8304</v>
+      </c>
+      <c r="B105" s="2">
+        <v>7489</v>
+      </c>
+      <c r="C105">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15">
+      <c r="A106">
+        <v>3646</v>
+      </c>
+      <c r="B106" s="2">
+        <v>9544</v>
+      </c>
+      <c r="C106">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15">
+      <c r="A107">
+        <v>3270</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1766</v>
+      </c>
+      <c r="C107">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15">
+      <c r="A108">
+        <v>2037</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2204</v>
+      </c>
+      <c r="C108">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15">
+      <c r="A109">
+        <v>6966</v>
+      </c>
+      <c r="B109" s="2">
+        <v>9189</v>
+      </c>
+      <c r="C109">
+        <v>7442</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15">
+      <c r="A110">
+        <v>7220</v>
+      </c>
+      <c r="B110" s="2">
+        <v>4116</v>
+      </c>
+      <c r="C110">
+        <v>9930</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15">
+      <c r="A111">
+        <v>2698</v>
+      </c>
+      <c r="B111" s="2">
+        <v>9639</v>
+      </c>
+      <c r="C111">
+        <v>9762</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15">
+      <c r="A112">
+        <v>9504</v>
+      </c>
+      <c r="B112" s="2">
+        <v>5566</v>
+      </c>
+      <c r="C112">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15">
+      <c r="A113">
+        <v>5964</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2161</v>
+      </c>
+      <c r="C113">
+        <v>8602</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15">
+      <c r="A114">
+        <v>6431</v>
+      </c>
+      <c r="B114" s="2">
+        <v>5518</v>
+      </c>
+      <c r="C114">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15">
+      <c r="A115">
+        <v>6617</v>
+      </c>
+      <c r="B115" s="2">
+        <v>4560</v>
+      </c>
+      <c r="C115">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15">
+      <c r="A116">
+        <v>3319</v>
+      </c>
+      <c r="B116" s="2">
+        <v>9685</v>
+      </c>
+      <c r="C116">
+        <v>9702</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15">
+      <c r="A117">
+        <v>5968</v>
+      </c>
+      <c r="B117" s="2">
+        <v>7056</v>
+      </c>
+      <c r="C117">
+        <v>7934</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15">
+      <c r="A118">
+        <v>7469</v>
+      </c>
+      <c r="B118" s="2">
+        <v>5758</v>
+      </c>
+      <c r="C118">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15">
+      <c r="A119">
+        <v>9591</v>
+      </c>
+      <c r="B119" s="2">
+        <v>4341</v>
+      </c>
+      <c r="C119">
+        <v>4936</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15">
+      <c r="A120">
+        <v>5866</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2254</v>
+      </c>
+      <c r="C120">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15">
+      <c r="A121">
+        <v>5017</v>
+      </c>
+      <c r="B121" s="2">
+        <v>7307</v>
+      </c>
+      <c r="C121">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15">
+      <c r="A122">
+        <v>6609</v>
+      </c>
+      <c r="B122" s="2">
+        <v>2729</v>
+      </c>
+      <c r="C122">
+        <v>8882</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15">
+      <c r="A123">
+        <v>6520</v>
+      </c>
+      <c r="B123" s="2">
+        <v>6443</v>
+      </c>
+      <c r="C123">
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15">
+      <c r="A124">
+        <v>1664</v>
+      </c>
+      <c r="B124" s="2">
+        <v>7990</v>
+      </c>
+      <c r="C124">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15">
+      <c r="A125">
+        <v>3861</v>
+      </c>
+      <c r="B125" s="2">
+        <v>6530</v>
+      </c>
+      <c r="C125">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15">
+      <c r="A126">
+        <v>4811</v>
+      </c>
+      <c r="B126" s="2">
+        <v>7262</v>
+      </c>
+      <c r="C126">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15">
+      <c r="A127">
+        <v>5203</v>
+      </c>
+      <c r="B127" s="2">
+        <v>3003</v>
+      </c>
+      <c r="C127">
+        <v>8383</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15">
+      <c r="A128">
+        <v>7707</v>
+      </c>
+      <c r="B128" s="2">
+        <v>4470</v>
+      </c>
+      <c r="C128">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15">
+      <c r="A129">
+        <v>2889</v>
+      </c>
+      <c r="B129" s="2">
+        <v>6237</v>
+      </c>
+      <c r="C129">
+        <v>7234</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15">
+      <c r="A130">
+        <v>8998</v>
+      </c>
+      <c r="B130" s="2">
+        <v>6340</v>
+      </c>
+      <c r="C130">
+        <v>9619</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15">
+      <c r="A131">
+        <v>9059</v>
+      </c>
+      <c r="B131" s="2">
+        <v>4763</v>
+      </c>
+      <c r="C131">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15">
+      <c r="A132">
+        <v>3532</v>
+      </c>
+      <c r="B132" s="2">
+        <v>8848</v>
+      </c>
+      <c r="C132">
+        <v>6339</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15">
+      <c r="A133">
+        <v>8492</v>
+      </c>
+      <c r="B133" s="2">
+        <v>3883</v>
+      </c>
+      <c r="C133">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15">
+      <c r="A134">
+        <v>2894</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1209</v>
+      </c>
+      <c r="C134">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15">
+      <c r="A135">
+        <v>4836</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2040</v>
+      </c>
+      <c r="C135">
+        <v>4419</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15">
+      <c r="A136">
+        <v>9337</v>
+      </c>
+      <c r="B136" s="2">
+        <v>8440</v>
+      </c>
+      <c r="C136">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15">
+      <c r="A137">
+        <v>9043</v>
+      </c>
+      <c r="B137" s="2">
+        <v>7805</v>
+      </c>
+      <c r="C137">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15">
+      <c r="A138">
+        <v>1604</v>
+      </c>
+      <c r="B138" s="2">
+        <v>3743</v>
+      </c>
+      <c r="C138">
+        <v>4841</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15">
+      <c r="A139">
+        <v>2009</v>
+      </c>
+      <c r="B139" s="2">
+        <v>4585</v>
+      </c>
+      <c r="C139">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15">
+      <c r="A140">
+        <v>2088</v>
+      </c>
+      <c r="B140" s="2">
+        <v>7586</v>
+      </c>
+      <c r="C140">
+        <v>3992</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15">
+      <c r="A141">
+        <v>1279</v>
+      </c>
+      <c r="B141" s="2">
+        <v>4116</v>
+      </c>
+      <c r="C141">
+        <v>7662</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15">
+      <c r="A142">
+        <v>5473</v>
+      </c>
+      <c r="B142" s="2">
+        <v>3002</v>
+      </c>
+      <c r="C142">
+        <v>6496</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15">
+      <c r="A143">
+        <v>9312</v>
+      </c>
+      <c r="B143" s="2">
+        <v>8143</v>
+      </c>
+      <c r="C143">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15">
+      <c r="A144">
+        <v>8165</v>
+      </c>
+      <c r="B144" s="2">
+        <v>8440</v>
+      </c>
+      <c r="C144">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15">
+      <c r="A145">
+        <v>7938</v>
+      </c>
+      <c r="B145" s="2">
+        <v>8135</v>
+      </c>
+      <c r="C145">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15">
+      <c r="A146">
+        <v>9816</v>
+      </c>
+      <c r="B146" s="2">
+        <v>4724</v>
+      </c>
+      <c r="C146">
+        <v>9627</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15">
+      <c r="A147">
+        <v>2931</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7525</v>
+      </c>
+      <c r="C147">
+        <v>2886</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15">
+      <c r="A148">
+        <v>6436</v>
+      </c>
+      <c r="B148" s="2">
+        <v>3386</v>
+      </c>
+      <c r="C148">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15">
+      <c r="A149">
+        <v>1423</v>
+      </c>
+      <c r="B149" s="2">
+        <v>7674</v>
+      </c>
+      <c r="C149">
+        <v>3972</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15">
+      <c r="A150">
+        <v>1053</v>
+      </c>
+      <c r="B150" s="2">
+        <v>4386</v>
+      </c>
+      <c r="C150">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15">
+      <c r="A151">
+        <v>7777</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2242</v>
+      </c>
+      <c r="C151">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15">
+      <c r="A152">
+        <v>8624</v>
+      </c>
+      <c r="B152" s="2">
+        <v>3354</v>
+      </c>
+      <c r="C152">
+        <v>9601</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15">
+      <c r="A153">
+        <v>9482</v>
+      </c>
+      <c r="B153" s="2">
+        <v>5725</v>
+      </c>
+      <c r="C153">
+        <v>9659</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15">
+      <c r="A154">
+        <v>8203</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2076</v>
+      </c>
+      <c r="C154">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15">
+      <c r="A155">
+        <v>1284</v>
+      </c>
+      <c r="B155" s="2">
+        <v>4405</v>
+      </c>
+      <c r="C155">
+        <v>7252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15">
+      <c r="A156">
+        <v>9851</v>
+      </c>
+      <c r="B156" s="2">
+        <v>4249</v>
+      </c>
+      <c r="C156">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15">
+      <c r="A157">
+        <v>8874</v>
+      </c>
+      <c r="B157" s="2">
+        <v>3559</v>
+      </c>
+      <c r="C157">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15">
+      <c r="A158">
+        <v>7736</v>
+      </c>
+      <c r="B158" s="2">
+        <v>2926</v>
+      </c>
+      <c r="C158">
+        <v>7831</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15">
+      <c r="A159">
+        <v>2093</v>
+      </c>
+      <c r="B159" s="2">
+        <v>9137</v>
+      </c>
+      <c r="C159">
+        <v>6712</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15">
+      <c r="A160">
+        <v>5782</v>
+      </c>
+      <c r="B160" s="2">
+        <v>8370</v>
+      </c>
+      <c r="C160">
+        <v>9928</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15">
+      <c r="A161">
+        <v>9913</v>
+      </c>
+      <c r="B161" s="2">
+        <v>9384</v>
+      </c>
+      <c r="C161">
+        <v>9811</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15">
+      <c r="A162">
+        <v>2386</v>
+      </c>
+      <c r="B162" s="2">
+        <v>1239</v>
+      </c>
+      <c r="C162">
+        <v>4834</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15">
+      <c r="A163">
+        <v>9217</v>
+      </c>
+      <c r="B163" s="2">
+        <v>8183</v>
+      </c>
+      <c r="C163">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15">
+      <c r="A164">
+        <v>5505</v>
+      </c>
+      <c r="B164" s="2">
+        <v>5184</v>
+      </c>
+      <c r="C164">
+        <v>7708</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15">
+      <c r="A165">
+        <v>7699</v>
+      </c>
+      <c r="B165" s="2">
+        <v>6046</v>
+      </c>
+      <c r="C165">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15">
+      <c r="A166">
+        <v>1029</v>
+      </c>
+      <c r="B166" s="2">
+        <v>9069</v>
+      </c>
+      <c r="C166">
+        <v>9144</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15">
+      <c r="A167">
+        <v>6789</v>
+      </c>
+      <c r="B167" s="2">
+        <v>3436</v>
+      </c>
+      <c r="C167">
+        <v>9918</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15">
+      <c r="A168">
+        <v>6058</v>
+      </c>
+      <c r="B168" s="2">
+        <v>8041</v>
+      </c>
+      <c r="C168">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15">
+      <c r="A169">
+        <v>7817</v>
+      </c>
+      <c r="B169" s="2">
+        <v>4782</v>
+      </c>
+      <c r="C169">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15">
+      <c r="A170">
+        <v>2137</v>
+      </c>
+      <c r="B170" s="2">
+        <v>8065</v>
+      </c>
+      <c r="C170">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15">
+      <c r="A171">
+        <v>6105</v>
+      </c>
+      <c r="B171" s="2">
+        <v>5150</v>
+      </c>
+      <c r="C171">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15">
+      <c r="A172">
+        <v>8456</v>
+      </c>
+      <c r="B172" s="2">
+        <v>5579</v>
+      </c>
+      <c r="C172">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15">
+      <c r="A173">
+        <v>7806</v>
+      </c>
+      <c r="B173" s="2">
+        <v>4680</v>
+      </c>
+      <c r="C173">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15">
+      <c r="A174">
+        <v>8508</v>
+      </c>
+      <c r="B174" s="2">
+        <v>7710</v>
+      </c>
+      <c r="C174">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15">
+      <c r="A175">
+        <v>9239</v>
+      </c>
+      <c r="B175" s="2">
+        <v>7609</v>
+      </c>
+      <c r="C175">
+        <v>7292</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15">
+      <c r="A176">
+        <v>1480</v>
+      </c>
+      <c r="B176" s="2">
+        <v>5488</v>
+      </c>
+      <c r="C176">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15">
+      <c r="A177">
+        <v>2440</v>
+      </c>
+      <c r="B177" s="2">
+        <v>9674</v>
+      </c>
+      <c r="C177">
+        <v>9980</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15">
+      <c r="A178">
+        <v>9953</v>
+      </c>
+      <c r="B178" s="2">
+        <v>7215</v>
+      </c>
+      <c r="C178">
+        <v>3209</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15">
+      <c r="A179">
+        <v>2934</v>
+      </c>
+      <c r="B179" s="2">
+        <v>3737</v>
+      </c>
+      <c r="C179">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15">
+      <c r="A180">
+        <v>2742</v>
+      </c>
+      <c r="B180" s="2">
+        <v>1793</v>
+      </c>
+      <c r="C180">
+        <v>6778</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15">
+      <c r="A181">
+        <v>7465</v>
+      </c>
+      <c r="B181" s="2">
+        <v>8462</v>
+      </c>
+      <c r="C181">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15">
+      <c r="A182">
+        <v>9559</v>
+      </c>
+      <c r="B182" s="2">
+        <v>6327</v>
+      </c>
+      <c r="C182">
+        <v>9749</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15">
+      <c r="A183">
+        <v>8283</v>
+      </c>
+      <c r="B183" s="2">
+        <v>2080</v>
+      </c>
+      <c r="C183">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15">
+      <c r="A184">
+        <v>6060</v>
+      </c>
+      <c r="B184" s="2">
+        <v>1833</v>
+      </c>
+      <c r="C184">
+        <v>6658</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15">
+      <c r="A185">
+        <v>7281</v>
+      </c>
+      <c r="B185" s="2">
+        <v>8361</v>
+      </c>
+      <c r="C185">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15">
+      <c r="A186">
+        <v>1647</v>
+      </c>
+      <c r="B186" s="2">
+        <v>7265</v>
+      </c>
+      <c r="C186">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15">
+      <c r="A187">
+        <v>9189</v>
+      </c>
+      <c r="B187" s="2">
+        <v>4036</v>
+      </c>
+      <c r="C187">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15">
+      <c r="A188">
+        <v>9612</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1242</v>
+      </c>
+      <c r="C188">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15">
+      <c r="A189">
+        <v>2210</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1709</v>
+      </c>
+      <c r="C189">
+        <v>5385</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15">
+      <c r="A190">
+        <v>1128</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1687</v>
+      </c>
+      <c r="C190">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15">
+      <c r="A191">
+        <v>2754</v>
+      </c>
+      <c r="B191" s="2">
+        <v>7593</v>
+      </c>
+      <c r="C191">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15">
+      <c r="A192">
+        <v>5244</v>
+      </c>
+      <c r="B192" s="2">
+        <v>3452</v>
+      </c>
+      <c r="C192">
+        <v>7866</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15">
+      <c r="A193">
+        <v>9890</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1558</v>
+      </c>
+      <c r="C193">
+        <v>7595</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15">
+      <c r="A194">
+        <v>3908</v>
+      </c>
+      <c r="B194" s="2">
+        <v>3414</v>
+      </c>
+      <c r="C194">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15">
+      <c r="A195">
+        <v>8961</v>
+      </c>
+      <c r="B195" s="2">
+        <v>4406</v>
+      </c>
+      <c r="C195">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15">
+      <c r="A196">
+        <v>4058</v>
+      </c>
+      <c r="B196" s="2">
+        <v>6501</v>
+      </c>
+      <c r="C196">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15">
+      <c r="A197">
+        <v>3839</v>
+      </c>
+      <c r="B197" s="2">
+        <v>3057</v>
+      </c>
+      <c r="C197">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15">
+      <c r="A198">
+        <v>7137</v>
+      </c>
+      <c r="B198" s="2">
+        <v>2108</v>
+      </c>
+      <c r="C198">
+        <v>7454</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15">
+      <c r="A199">
+        <v>1425</v>
+      </c>
+      <c r="B199" s="2">
+        <v>2672</v>
+      </c>
+      <c r="C199">
+        <v>7216</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15">
+      <c r="A200">
+        <v>2845</v>
+      </c>
+      <c r="B200" s="2">
+        <v>4359</v>
+      </c>
+      <c r="C200">
+        <v>5448</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15">
+      <c r="A201">
+        <v>3855</v>
+      </c>
+      <c r="B201" s="2">
+        <v>4712</v>
+      </c>
+      <c r="C201">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15">
+      <c r="A202">
+        <v>4610</v>
+      </c>
+      <c r="B202" s="2">
+        <v>1206</v>
+      </c>
+      <c r="C202">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15">
+      <c r="A203">
+        <v>9981</v>
+      </c>
+      <c r="B203" s="2">
+        <v>8884</v>
+      </c>
+      <c r="C203">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15">
+      <c r="A204">
+        <v>9147</v>
+      </c>
+      <c r="B204" s="2">
+        <v>4959</v>
+      </c>
+      <c r="C204">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15">
+      <c r="A205">
+        <v>4704</v>
+      </c>
+      <c r="B205" s="2">
+        <v>6735</v>
+      </c>
+      <c r="C205">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15">
+      <c r="A206">
+        <v>9404</v>
+      </c>
+      <c r="B206" s="2">
+        <v>6530</v>
+      </c>
+      <c r="C206">
+        <v>5727</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15">
+      <c r="A207">
+        <v>1954</v>
+      </c>
+      <c r="B207" s="2">
+        <v>4993</v>
+      </c>
+      <c r="C207">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15">
+      <c r="A208">
+        <v>6500</v>
+      </c>
+      <c r="B208" s="2">
+        <v>4813</v>
+      </c>
+      <c r="C208">
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15">
+      <c r="A209">
+        <v>5936</v>
+      </c>
+      <c r="B209" s="2">
+        <v>8274</v>
+      </c>
+      <c r="C209">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15">
+      <c r="A210">
+        <v>2700</v>
+      </c>
+      <c r="B210" s="2">
+        <v>9101</v>
+      </c>
+      <c r="C210">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15">
+      <c r="A211">
+        <v>3595</v>
+      </c>
+      <c r="B211" s="2">
+        <v>7868</v>
+      </c>
+      <c r="C211">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15">
+      <c r="A212">
+        <v>6813</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2828</v>
+      </c>
+      <c r="C212">
+        <v>6871</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15">
+      <c r="A213">
+        <v>1246</v>
+      </c>
+      <c r="B213" s="2">
+        <v>5812</v>
+      </c>
+      <c r="C213">
+        <v>5654</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15">
+      <c r="A214">
+        <v>8534</v>
+      </c>
+      <c r="B214" s="2">
+        <v>7332</v>
+      </c>
+      <c r="C214">
+        <v>4441</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15">
+      <c r="A215">
+        <v>6524</v>
+      </c>
+      <c r="B215" s="2">
+        <v>5572</v>
+      </c>
+      <c r="C215">
+        <v>9276</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15">
+      <c r="A216">
+        <v>4951</v>
+      </c>
+      <c r="B216" s="2">
+        <v>2813</v>
+      </c>
+      <c r="C216">
+        <v>4874</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15">
+      <c r="A217">
+        <v>9230</v>
+      </c>
+      <c r="B217" s="2">
+        <v>9475</v>
+      </c>
+      <c r="C217">
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15">
+      <c r="A218">
+        <v>2239</v>
+      </c>
+      <c r="B218" s="2">
+        <v>5392</v>
+      </c>
+      <c r="C218">
+        <v>6196</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15">
+      <c r="A219">
+        <v>5670</v>
+      </c>
+      <c r="B219" s="2">
+        <v>8048</v>
+      </c>
+      <c r="C219">
+        <v>6171</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15">
+      <c r="A220">
+        <v>3396</v>
+      </c>
+      <c r="B220" s="2">
+        <v>9673</v>
+      </c>
+      <c r="C220">
+        <v>8685</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15">
+      <c r="A221">
+        <v>4657</v>
+      </c>
+      <c r="B221" s="2">
+        <v>7049</v>
+      </c>
+      <c r="C221">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15">
+      <c r="A222">
+        <v>5828</v>
+      </c>
+      <c r="B222" s="2">
+        <v>9386</v>
+      </c>
+      <c r="C222">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15">
+      <c r="A223">
+        <v>3976</v>
+      </c>
+      <c r="B223" s="2">
+        <v>9248</v>
+      </c>
+      <c r="C223">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15">
+      <c r="A224">
+        <v>6812</v>
+      </c>
+      <c r="B224" s="2">
+        <v>7401</v>
+      </c>
+      <c r="C224">
+        <v>9919</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15">
+      <c r="A225">
+        <v>2721</v>
+      </c>
+      <c r="B225" s="2">
+        <v>3371</v>
+      </c>
+      <c r="C225">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15">
+      <c r="A226">
+        <v>1268</v>
+      </c>
+      <c r="B226" s="2">
+        <v>8130</v>
+      </c>
+      <c r="C226">
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15">
+      <c r="A227">
+        <v>8295</v>
+      </c>
+      <c r="B227" s="2">
+        <v>5855</v>
+      </c>
+      <c r="C227">
+        <v>9112</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15">
+      <c r="A228">
+        <v>9263</v>
+      </c>
+      <c r="B228" s="2">
+        <v>2866</v>
+      </c>
+      <c r="C228">
+        <v>5977</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15">
+      <c r="A229">
+        <v>1305</v>
+      </c>
+      <c r="B229" s="2">
+        <v>6249</v>
+      </c>
+      <c r="C229">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15">
+      <c r="A230">
+        <v>9205</v>
+      </c>
+      <c r="B230" s="2">
+        <v>3395</v>
+      </c>
+      <c r="C230">
+        <v>5961</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15">
+      <c r="A231">
+        <v>8602</v>
+      </c>
+      <c r="B231" s="2">
+        <v>1466</v>
+      </c>
+      <c r="C231">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15">
+      <c r="A232">
+        <v>4499</v>
+      </c>
+      <c r="B232" s="2">
+        <v>7481</v>
+      </c>
+      <c r="C232">
+        <v>7865</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15">
+      <c r="A233">
+        <v>8031</v>
+      </c>
+      <c r="B233" s="2">
+        <v>6792</v>
+      </c>
+      <c r="C233">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15">
+      <c r="A234">
+        <v>6174</v>
+      </c>
+      <c r="B234" s="2">
+        <v>6245</v>
+      </c>
+      <c r="C234">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15">
+      <c r="A235">
+        <v>3087</v>
+      </c>
+      <c r="B235" s="2">
+        <v>6469</v>
+      </c>
+      <c r="C235">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15">
+      <c r="A236">
+        <v>7175</v>
+      </c>
+      <c r="B236" s="2">
+        <v>2208</v>
+      </c>
+      <c r="C236">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15">
+      <c r="A237">
+        <v>9724</v>
+      </c>
+      <c r="B237" s="2">
+        <v>8629</v>
+      </c>
+      <c r="C237">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15">
+      <c r="A238">
+        <v>5220</v>
+      </c>
+      <c r="B238" s="2">
+        <v>6600</v>
+      </c>
+      <c r="C238">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15">
+      <c r="A239">
+        <v>6238</v>
+      </c>
+      <c r="B239" s="2">
+        <v>5921</v>
+      </c>
+      <c r="C239">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15">
+      <c r="A240">
+        <v>2537</v>
+      </c>
+      <c r="B240" s="2">
+        <v>3897</v>
+      </c>
+      <c r="C240">
+        <v>4182</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15">
+      <c r="A241">
+        <v>2030</v>
+      </c>
+      <c r="B241" s="2">
+        <v>2460</v>
+      </c>
+      <c r="C241">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15">
+      <c r="A242">
+        <v>7667</v>
+      </c>
+      <c r="B242" s="2">
+        <v>5364</v>
+      </c>
+      <c r="C242">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15">
+      <c r="A243">
+        <v>8786</v>
+      </c>
+      <c r="B243" s="2">
+        <v>6838</v>
+      </c>
+      <c r="C243">
+        <v>8711</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15">
+      <c r="A244">
+        <v>7610</v>
+      </c>
+      <c r="B244" s="2">
+        <v>7008</v>
+      </c>
+      <c r="C244">
+        <v>6672</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15">
+      <c r="A245">
+        <v>3034</v>
+      </c>
+      <c r="B245" s="2">
+        <v>7225</v>
+      </c>
+      <c r="C245">
+        <v>9085</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15">
+      <c r="A246">
+        <v>3476</v>
+      </c>
+      <c r="B246" s="2">
+        <v>3655</v>
+      </c>
+      <c r="C246">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15">
+      <c r="A247">
+        <v>6641</v>
+      </c>
+      <c r="B247" s="2">
+        <v>5765</v>
+      </c>
+      <c r="C247">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15">
+      <c r="A248">
+        <v>9979</v>
+      </c>
+      <c r="B248" s="2">
+        <v>7261</v>
+      </c>
+      <c r="C248">
+        <v>7183</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15">
+      <c r="A249">
+        <v>5300</v>
+      </c>
+      <c r="B249" s="2">
+        <v>3540</v>
+      </c>
+      <c r="C249">
+        <v>7994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15">
+      <c r="A250">
+        <v>5840</v>
+      </c>
+      <c r="B250" s="2">
+        <v>1698</v>
+      </c>
+      <c r="C250">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15">
+      <c r="A251">
+        <v>6908</v>
+      </c>
+      <c r="B251" s="2">
+        <v>2628</v>
+      </c>
+      <c r="C251">
+        <v>8596</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15">
+      <c r="A252">
+        <v>3463</v>
+      </c>
+      <c r="B252" s="2">
+        <v>2322</v>
+      </c>
+      <c r="C252">
+        <v>9654</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15">
+      <c r="A253">
+        <v>2107</v>
+      </c>
+      <c r="B253" s="2">
+        <v>1198</v>
+      </c>
+      <c r="C253">
+        <v>6314</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15">
+      <c r="A254">
+        <v>4975</v>
+      </c>
+      <c r="B254" s="2">
+        <v>8613</v>
+      </c>
+      <c r="C254">
+        <v>4971</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15">
+      <c r="A255">
+        <v>7861</v>
+      </c>
+      <c r="B255" s="2">
+        <v>1905</v>
+      </c>
+      <c r="C255">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15">
+      <c r="A256">
+        <v>2626</v>
+      </c>
+      <c r="B256" s="2">
+        <v>3215</v>
+      </c>
+      <c r="C256">
+        <v>4147</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15">
+      <c r="A257">
+        <v>5961</v>
+      </c>
+      <c r="B257" s="2">
+        <v>3477</v>
+      </c>
+      <c r="C257">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15">
+      <c r="A258">
+        <v>1894</v>
+      </c>
+      <c r="B258" s="2">
+        <v>8684</v>
+      </c>
+      <c r="C258">
+        <v>3536</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15">
+      <c r="A259">
+        <v>1714</v>
+      </c>
+      <c r="B259" s="2">
+        <v>3119</v>
+      </c>
+      <c r="C259">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15">
+      <c r="A260">
+        <v>2289</v>
+      </c>
+      <c r="B260" s="2">
+        <v>2521</v>
+      </c>
+      <c r="C260">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15">
+      <c r="A261">
+        <v>1339</v>
+      </c>
+      <c r="B261" s="2">
+        <v>9573</v>
+      </c>
+      <c r="C261">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15">
+      <c r="A262">
+        <v>4355</v>
+      </c>
+      <c r="B262" s="2">
+        <v>2820</v>
+      </c>
+      <c r="C262">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="15">
+      <c r="A263">
+        <v>4572</v>
+      </c>
+      <c r="B263" s="2">
+        <v>7202</v>
+      </c>
+      <c r="C263">
+        <v>5506</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15">
+      <c r="A264">
+        <v>7408</v>
+      </c>
+      <c r="B264" s="2">
+        <v>7668</v>
+      </c>
+      <c r="C264">
+        <v>9644</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15">
+      <c r="A265">
+        <v>9744</v>
+      </c>
+      <c r="B265" s="2">
+        <v>9132</v>
+      </c>
+      <c r="C265">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15">
+      <c r="A266">
+        <v>7739</v>
+      </c>
+      <c r="B266" s="2">
+        <v>5621</v>
+      </c>
+      <c r="C266">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15">
+      <c r="A267">
+        <v>4443</v>
+      </c>
+      <c r="B267" s="2">
+        <v>1133</v>
+      </c>
+      <c r="C267">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15">
+      <c r="A268">
+        <v>7307</v>
+      </c>
+      <c r="B268" s="2">
+        <v>6674</v>
+      </c>
+      <c r="C268">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15">
+      <c r="A269">
+        <v>3410</v>
+      </c>
+      <c r="B269" s="2">
+        <v>8385</v>
+      </c>
+      <c r="C269">
+        <v>9225</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15">
+      <c r="A270">
+        <v>3202</v>
+      </c>
+      <c r="B270" s="2">
+        <v>1877</v>
+      </c>
+      <c r="C270">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15">
+      <c r="A271">
+        <v>8715</v>
+      </c>
+      <c r="B271" s="2">
+        <v>4165</v>
+      </c>
+      <c r="C271">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15">
+      <c r="A272">
+        <v>8153</v>
+      </c>
+      <c r="B272" s="2">
+        <v>1774</v>
+      </c>
+      <c r="C272">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15">
+      <c r="A273">
+        <v>5158</v>
+      </c>
+      <c r="B273" s="2">
+        <v>6201</v>
+      </c>
+      <c r="C273">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15">
+      <c r="A274">
+        <v>2029</v>
+      </c>
+      <c r="B274" s="2">
+        <v>1853</v>
+      </c>
+      <c r="C274">
+        <v>7753</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15">
+      <c r="A275">
+        <v>9817</v>
+      </c>
+      <c r="B275" s="2">
+        <v>7069</v>
+      </c>
+      <c r="C275">
+        <v>4966</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15">
+      <c r="A276">
+        <v>5951</v>
+      </c>
+      <c r="B276" s="2">
+        <v>2602</v>
+      </c>
+      <c r="C276">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15">
+      <c r="A277">
+        <v>4766</v>
+      </c>
+      <c r="B277" s="2">
+        <v>1049</v>
+      </c>
+      <c r="C277">
+        <v>9872</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15">
+      <c r="A278">
+        <v>9810</v>
+      </c>
+      <c r="B278" s="2">
+        <v>9441</v>
+      </c>
+      <c r="C278">
+        <v>6337</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15">
+      <c r="A279">
+        <v>6487</v>
+      </c>
+      <c r="B279" s="2">
+        <v>1208</v>
+      </c>
+      <c r="C279">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15">
+      <c r="A280">
+        <v>9107</v>
+      </c>
+      <c r="B280" s="2">
+        <v>4221</v>
+      </c>
+      <c r="C280">
+        <v>8120</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15">
+      <c r="A281">
+        <v>1473</v>
+      </c>
+      <c r="B281" s="2">
+        <v>7022</v>
+      </c>
+      <c r="C281">
+        <v>6855</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15">
+      <c r="A282">
+        <v>7389</v>
+      </c>
+      <c r="B282" s="2">
+        <v>6704</v>
+      </c>
+      <c r="C282">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15">
+      <c r="A283">
+        <v>2984</v>
+      </c>
+      <c r="B283" s="2">
+        <v>8075</v>
+      </c>
+      <c r="C283">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15">
+      <c r="A284">
+        <v>9017</v>
+      </c>
+      <c r="B284" s="2">
+        <v>8745</v>
+      </c>
+      <c r="C284">
+        <v>6261</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15">
+      <c r="A285">
+        <v>8261</v>
+      </c>
+      <c r="B285" s="2">
+        <v>3998</v>
+      </c>
+      <c r="C285">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15">
+      <c r="A286">
+        <v>9765</v>
+      </c>
+      <c r="B286" s="2">
+        <v>3233</v>
+      </c>
+      <c r="C286">
+        <v>6525</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15">
+      <c r="A287">
+        <v>4056</v>
+      </c>
+      <c r="B287" s="2">
+        <v>7502</v>
+      </c>
+      <c r="C287">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15">
+      <c r="A288">
+        <v>2865</v>
+      </c>
+      <c r="B288" s="2">
+        <v>7565</v>
+      </c>
+      <c r="C288">
+        <v>5614</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15">
+      <c r="A289">
+        <v>5698</v>
+      </c>
+      <c r="B289" s="2">
+        <v>8920</v>
+      </c>
+      <c r="C289">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15">
+      <c r="A290">
+        <v>4126</v>
+      </c>
+      <c r="B290" s="2">
+        <v>5885</v>
+      </c>
+      <c r="C290">
+        <v>7070</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15">
+      <c r="A291">
+        <v>2549</v>
+      </c>
+      <c r="B291" s="2">
+        <v>7454</v>
+      </c>
+      <c r="C291">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15">
+      <c r="A292">
+        <v>3716</v>
+      </c>
+      <c r="B292" s="2">
+        <v>5549</v>
+      </c>
+      <c r="C292">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15">
+      <c r="A293">
+        <v>8290</v>
+      </c>
+      <c r="B293" s="2">
+        <v>8805</v>
+      </c>
+      <c r="C293">
+        <v>7109</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15">
+      <c r="A294">
+        <v>2594</v>
+      </c>
+      <c r="B294" s="2">
+        <v>1173</v>
+      </c>
+      <c r="C294">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15">
+      <c r="A295">
+        <v>5793</v>
+      </c>
+      <c r="B295" s="2">
+        <v>7075</v>
+      </c>
+      <c r="C295">
+        <v>7834</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15">
+      <c r="A296">
+        <v>1766</v>
+      </c>
+      <c r="B296" s="2">
+        <v>4129</v>
+      </c>
+      <c r="C296">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15">
+      <c r="A297">
+        <v>8007</v>
+      </c>
+      <c r="B297" s="2">
+        <v>1874</v>
+      </c>
+      <c r="C297">
+        <v>7414</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15">
+      <c r="A298">
+        <v>4645</v>
+      </c>
+      <c r="B298" s="2">
+        <v>5186</v>
+      </c>
+      <c r="C298">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15">
+      <c r="A299">
+        <v>8617</v>
+      </c>
+      <c r="B299" s="2">
+        <v>3792</v>
+      </c>
+      <c r="C299">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15">
+      <c r="A300">
+        <v>1247</v>
+      </c>
+      <c r="B300" s="2">
+        <v>2730</v>
+      </c>
+      <c r="C300">
+        <v>8408</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15">
+      <c r="A301">
+        <v>5567</v>
+      </c>
+      <c r="B301" s="2">
+        <v>4151</v>
+      </c>
+      <c r="C301">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15">
+      <c r="A302">
+        <v>8868</v>
+      </c>
+      <c r="B302" s="2">
+        <v>8232</v>
+      </c>
+      <c r="C302">
+        <v>4105</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15">
+      <c r="A303">
+        <v>3413</v>
+      </c>
+      <c r="B303" s="2">
+        <v>5657</v>
+      </c>
+      <c r="C303">
+        <v>2822</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15">
+      <c r="A304">
+        <v>7423</v>
+      </c>
+      <c r="B304" s="2">
+        <v>4023</v>
+      </c>
+      <c r="C304">
+        <v>7142</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15">
+      <c r="A305">
+        <v>8890</v>
+      </c>
+      <c r="B305" s="2">
+        <v>5228</v>
+      </c>
+      <c r="C305">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15">
+      <c r="A306">
+        <v>4091</v>
+      </c>
+      <c r="B306" s="2">
+        <v>3788</v>
+      </c>
+      <c r="C306">
+        <v>9952</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15">
+      <c r="A307">
+        <v>5349</v>
+      </c>
+      <c r="B307" s="2">
+        <v>6210</v>
+      </c>
+      <c r="C307">
+        <v>8877</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15">
+      <c r="A308">
+        <v>4709</v>
+      </c>
+      <c r="B308" s="2">
+        <v>3411</v>
+      </c>
+      <c r="C308">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15">
+      <c r="A309">
+        <v>1538</v>
+      </c>
+      <c r="B309" s="2">
+        <v>5998</v>
+      </c>
+      <c r="C309">
+        <v>4023</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15">
+      <c r="A310">
+        <v>1170</v>
+      </c>
+      <c r="B310" s="2">
+        <v>4114</v>
+      </c>
+      <c r="C310">
+        <v>8009</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15">
+      <c r="A311">
+        <v>5819</v>
+      </c>
+      <c r="B311" s="2">
+        <v>8107</v>
+      </c>
+      <c r="C311">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15">
+      <c r="A312">
+        <v>8528</v>
+      </c>
+      <c r="B312" s="2">
+        <v>8245</v>
+      </c>
+      <c r="C312">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15">
+      <c r="A313">
+        <v>5014</v>
+      </c>
+      <c r="B313" s="2">
+        <v>2404</v>
+      </c>
+      <c r="C313">
+        <v>6819</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15">
+      <c r="A314">
+        <v>5278</v>
+      </c>
+      <c r="B314" s="2">
+        <v>9372</v>
+      </c>
+      <c r="C314">
+        <v>7977</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15">
+      <c r="A315">
+        <v>9227</v>
+      </c>
+      <c r="B315" s="2">
+        <v>6556</v>
+      </c>
+      <c r="C315">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15">
+      <c r="A316">
+        <v>9506</v>
+      </c>
+      <c r="B316" s="2">
+        <v>2124</v>
+      </c>
+      <c r="C316">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15">
+      <c r="A317">
+        <v>7743</v>
+      </c>
+      <c r="B317" s="2">
+        <v>9472</v>
+      </c>
+      <c r="C317">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15">
+      <c r="A318">
+        <v>5028</v>
+      </c>
+      <c r="B318" s="2">
+        <v>8759</v>
+      </c>
+      <c r="C318">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15">
+      <c r="A319">
+        <v>3114</v>
+      </c>
+      <c r="B319" s="2">
+        <v>1789</v>
+      </c>
+      <c r="C319">
+        <v>7386</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15">
+      <c r="A320">
+        <v>6878</v>
+      </c>
+      <c r="B320" s="2">
+        <v>5397</v>
+      </c>
+      <c r="C320">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15">
+      <c r="A321">
+        <v>2836</v>
+      </c>
+      <c r="B321" s="2">
+        <v>2734</v>
+      </c>
+      <c r="C321">
+        <v>8170</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15">
+      <c r="A322">
+        <v>1546</v>
+      </c>
+      <c r="B322" s="2">
+        <v>9507</v>
+      </c>
+      <c r="C322">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15">
+      <c r="A323">
+        <v>9549</v>
+      </c>
+      <c r="B323" s="2">
+        <v>6524</v>
+      </c>
+      <c r="C323">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15">
+      <c r="A324">
+        <v>5127</v>
+      </c>
+      <c r="B324" s="2">
+        <v>1883</v>
+      </c>
+      <c r="C324">
+        <v>3987</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="15">
+      <c r="A325">
+        <v>4815</v>
+      </c>
+      <c r="B325" s="2">
+        <v>4433</v>
+      </c>
+      <c r="C325">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15">
+      <c r="A326">
+        <v>2104</v>
+      </c>
+      <c r="B326" s="2">
+        <v>9926</v>
+      </c>
+      <c r="C326">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="15">
+      <c r="A327">
+        <v>3511</v>
+      </c>
+      <c r="B327" s="2">
+        <v>3287</v>
+      </c>
+      <c r="C327">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="15">
+      <c r="A328">
+        <v>6549</v>
+      </c>
+      <c r="B328" s="2">
+        <v>7290</v>
+      </c>
+      <c r="C328">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="15">
+      <c r="A329">
+        <v>9701</v>
+      </c>
+      <c r="B329" s="2">
+        <v>6902</v>
+      </c>
+      <c r="C329">
+        <v>6579</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="15">
+      <c r="A330">
+        <v>1085</v>
+      </c>
+      <c r="B330" s="2">
+        <v>6184</v>
+      </c>
+      <c r="C330">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="15">
+      <c r="A331">
+        <v>2610</v>
+      </c>
+      <c r="B331" s="2">
+        <v>7593</v>
+      </c>
+      <c r="C331">
+        <v>8846</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="15">
+      <c r="A332">
+        <v>4652</v>
+      </c>
+      <c r="B332" s="2">
+        <v>6772</v>
+      </c>
+      <c r="C332">
+        <v>9830</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="15">
+      <c r="A333">
+        <v>1378</v>
+      </c>
+      <c r="B333" s="2">
+        <v>5193</v>
+      </c>
+      <c r="C333">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="15">
+      <c r="A334">
+        <v>2326</v>
+      </c>
+      <c r="B334" s="2">
+        <v>6053</v>
+      </c>
+      <c r="C334">
+        <v>9388</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="15">
+      <c r="A335">
+        <v>2825</v>
+      </c>
+      <c r="B335" s="2">
+        <v>1152</v>
+      </c>
+      <c r="C335">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="15">
+      <c r="A336">
+        <v>9097</v>
+      </c>
+      <c r="B336" s="2">
+        <v>8068</v>
+      </c>
+      <c r="C336">
+        <v>9615</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="15">
+      <c r="A337">
+        <v>3719</v>
+      </c>
+      <c r="B337" s="2">
+        <v>6051</v>
+      </c>
+      <c r="C337">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="15">
+      <c r="A338">
+        <v>1936</v>
+      </c>
+      <c r="B338" s="2">
+        <v>6582</v>
+      </c>
+      <c r="C338">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15">
+      <c r="A339">
+        <v>8661</v>
+      </c>
+      <c r="B339" s="2">
+        <v>7262</v>
+      </c>
+      <c r="C339">
+        <v>7526</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15">
+      <c r="A340">
+        <v>4756</v>
+      </c>
+      <c r="B340" s="2">
+        <v>7703</v>
+      </c>
+      <c r="C340">
+        <v>6013</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15">
+      <c r="A341">
+        <v>4612</v>
+      </c>
+      <c r="B341" s="2">
+        <v>6726</v>
+      </c>
+      <c r="C341">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15">
+      <c r="A342">
+        <v>4828</v>
+      </c>
+      <c r="B342" s="2">
+        <v>2562</v>
+      </c>
+      <c r="C342">
+        <v>7602</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="15">
+      <c r="A343">
+        <v>8637</v>
+      </c>
+      <c r="B343" s="2">
+        <v>2306</v>
+      </c>
+      <c r="C343">
+        <v>8487</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15">
+      <c r="A344">
+        <v>9965</v>
+      </c>
+      <c r="B344" s="2">
+        <v>6681</v>
+      </c>
+      <c r="C344">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="15">
+      <c r="A345">
+        <v>5878</v>
+      </c>
+      <c r="B345" s="2">
+        <v>8374</v>
+      </c>
+      <c r="C345">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="15">
+      <c r="A346">
+        <v>4999</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2220</v>
+      </c>
+      <c r="C346">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="15">
+      <c r="A347">
+        <v>6028</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2751</v>
+      </c>
+      <c r="C347">
+        <v>8561</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="15">
+      <c r="A348">
+        <v>4604</v>
+      </c>
+      <c r="B348" s="2">
+        <v>8648</v>
+      </c>
+      <c r="C348">
+        <v>6627</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15">
+      <c r="A349">
+        <v>5038</v>
+      </c>
+      <c r="B349" s="2">
+        <v>6767</v>
+      </c>
+      <c r="C349">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="15">
+      <c r="A350">
+        <v>6691</v>
+      </c>
+      <c r="B350" s="2">
+        <v>6159</v>
+      </c>
+      <c r="C350">
+        <v>8913</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="15">
+      <c r="A351">
+        <v>5807</v>
+      </c>
+      <c r="B351" s="2">
+        <v>3256</v>
+      </c>
+      <c r="C351">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15">
+      <c r="A352">
+        <v>9286</v>
+      </c>
+      <c r="B352" s="2">
+        <v>5314</v>
+      </c>
+      <c r="C352">
+        <v>4844</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15">
+      <c r="A353">
+        <v>5846</v>
+      </c>
+      <c r="B353" s="2">
+        <v>8725</v>
+      </c>
+      <c r="C353">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15">
+      <c r="A354">
+        <v>8004</v>
+      </c>
+      <c r="B354" s="2">
+        <v>1462</v>
+      </c>
+      <c r="C354">
+        <v>6992</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="15">
+      <c r="A355">
+        <v>7574</v>
+      </c>
+      <c r="B355" s="2">
+        <v>9804</v>
+      </c>
+      <c r="C355">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="15">
+      <c r="A356">
+        <v>5605</v>
+      </c>
+      <c r="B356" s="2">
+        <v>6521</v>
+      </c>
+      <c r="C356">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15">
+      <c r="A357">
+        <v>4998</v>
+      </c>
+      <c r="B357" s="2">
+        <v>3722</v>
+      </c>
+      <c r="C357">
+        <v>7104</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15">
+      <c r="A358">
+        <v>2892</v>
+      </c>
+      <c r="B358" s="2">
+        <v>3150</v>
+      </c>
+      <c r="C358">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15">
+      <c r="A359">
+        <v>8933</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2818</v>
+      </c>
+      <c r="C359">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="15">
+      <c r="A360">
+        <v>9894</v>
+      </c>
+      <c r="B360" s="2">
+        <v>8235</v>
+      </c>
+      <c r="C360">
+        <v>9345</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15">
+      <c r="A361">
+        <v>6385</v>
+      </c>
+      <c r="B361" s="2">
+        <v>6791</v>
+      </c>
+      <c r="C361">
+        <v>8156</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="15">
+      <c r="A362">
+        <v>8562</v>
+      </c>
+      <c r="B362" s="2">
+        <v>3466</v>
+      </c>
+      <c r="C362">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15">
+      <c r="A363">
+        <v>4401</v>
+      </c>
+      <c r="B363" s="2">
+        <v>3056</v>
+      </c>
+      <c r="C363">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="15">
+      <c r="A364">
+        <v>4352</v>
+      </c>
+      <c r="B364" s="2">
+        <v>6815</v>
+      </c>
+      <c r="C364">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="15">
+      <c r="A365">
+        <v>8246</v>
+      </c>
+      <c r="B365" s="2">
+        <v>6647</v>
+      </c>
+      <c r="C365">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="15">
+      <c r="A366">
+        <v>5568</v>
+      </c>
+      <c r="B366" s="2">
+        <v>3780</v>
+      </c>
+      <c r="C366">
+        <v>7392</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="15">
+      <c r="A367">
+        <v>3745</v>
+      </c>
+      <c r="B367" s="2">
+        <v>2732</v>
+      </c>
+      <c r="C367">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="15">
+      <c r="A368">
+        <v>8478</v>
+      </c>
+      <c r="B368" s="2">
+        <v>7899</v>
+      </c>
+      <c r="C368">
+        <v>4616</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="15">
+      <c r="A369">
+        <v>5273</v>
+      </c>
+      <c r="B369" s="2">
+        <v>7140</v>
+      </c>
+      <c r="C369">
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="15">
+      <c r="A370">
+        <v>8803</v>
+      </c>
+      <c r="B370" s="2">
+        <v>1813</v>
+      </c>
+      <c r="C370">
+        <v>7186</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="15">
+      <c r="A371">
+        <v>4627</v>
+      </c>
+      <c r="B371" s="2">
+        <v>8888</v>
+      </c>
+      <c r="C371">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15">
+      <c r="A372">
+        <v>8601</v>
+      </c>
+      <c r="B372" s="2">
+        <v>1975</v>
+      </c>
+      <c r="C372">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="15">
+      <c r="A373">
+        <v>1156</v>
+      </c>
+      <c r="B373" s="2">
+        <v>8964</v>
+      </c>
+      <c r="C373">
+        <v>8763</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="15">
+      <c r="A374">
+        <v>2775</v>
+      </c>
+      <c r="B374" s="2">
+        <v>8298</v>
+      </c>
+      <c r="C374">
+        <v>9333</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="15">
+      <c r="A375">
+        <v>6721</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2720</v>
+      </c>
+      <c r="C375">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15">
+      <c r="A376">
+        <v>7225</v>
+      </c>
+      <c r="B376" s="2">
+        <v>4699</v>
+      </c>
+      <c r="C376">
+        <v>7066</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15">
+      <c r="A377">
+        <v>8729</v>
+      </c>
+      <c r="B377" s="2">
+        <v>2921</v>
+      </c>
+      <c r="C377">
+        <v>3554</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="15">
+      <c r="A378">
+        <v>2929</v>
+      </c>
+      <c r="B378" s="2">
+        <v>2997</v>
+      </c>
+      <c r="C378">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="15">
+      <c r="A379">
+        <v>6554</v>
+      </c>
+      <c r="B379" s="2">
+        <v>7764</v>
+      </c>
+      <c r="C379">
+        <v>9066</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="15">
+      <c r="A380">
+        <v>3790</v>
+      </c>
+      <c r="B380" s="2">
+        <v>7140</v>
+      </c>
+      <c r="C380">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15">
+      <c r="A381">
+        <v>7800</v>
+      </c>
+      <c r="B381" s="2">
+        <v>4636</v>
+      </c>
+      <c r="C381">
+        <v>6431</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="15">
+      <c r="A382">
+        <v>6950</v>
+      </c>
+      <c r="B382" s="2">
+        <v>5571</v>
+      </c>
+      <c r="C382">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="15">
+      <c r="A383">
+        <v>3520</v>
+      </c>
+      <c r="B383" s="2">
+        <v>1740</v>
+      </c>
+      <c r="C383">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15">
+      <c r="A384">
+        <v>9447</v>
+      </c>
+      <c r="B384" s="2">
+        <v>6452</v>
+      </c>
+      <c r="C384">
+        <v>6814</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="15">
+      <c r="A385">
+        <v>9542</v>
+      </c>
+      <c r="B385" s="2">
+        <v>9676</v>
+      </c>
+      <c r="C385">
+        <v>5018</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15">
+      <c r="A386">
+        <v>7418</v>
+      </c>
+      <c r="B386" s="2">
+        <v>8920</v>
+      </c>
+      <c r="C386">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15">
+      <c r="A387">
+        <v>1375</v>
+      </c>
+      <c r="B387" s="2">
+        <v>6328</v>
+      </c>
+      <c r="C387">
+        <v>9953</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15">
+      <c r="A388">
+        <v>3681</v>
+      </c>
+      <c r="B388" s="2">
+        <v>7292</v>
+      </c>
+      <c r="C388">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15">
+      <c r="A389">
+        <v>2848</v>
+      </c>
+      <c r="B389" s="2">
+        <v>1383</v>
+      </c>
+      <c r="C389">
+        <v>9941</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15">
+      <c r="A390">
+        <v>9125</v>
+      </c>
+      <c r="B390" s="2">
+        <v>7055</v>
+      </c>
+      <c r="C390">
+        <v>5785</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="15">
+      <c r="A391">
+        <v>8076</v>
+      </c>
+      <c r="B391" s="2">
+        <v>5924</v>
+      </c>
+      <c r="C391">
+        <v>9777</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="15">
+      <c r="A392">
+        <v>4511</v>
+      </c>
+      <c r="B392" s="2">
+        <v>2097</v>
+      </c>
+      <c r="C392">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="15">
+      <c r="A393">
+        <v>8405</v>
+      </c>
+      <c r="B393" s="2">
+        <v>6261</v>
+      </c>
+      <c r="C393">
+        <v>8433</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="15">
+      <c r="A394">
+        <v>9087</v>
+      </c>
+      <c r="B394" s="2">
+        <v>6939</v>
+      </c>
+      <c r="C394">
+        <v>4028</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="15">
+      <c r="A395">
+        <v>8687</v>
+      </c>
+      <c r="B395" s="2">
+        <v>8356</v>
+      </c>
+      <c r="C395">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="15">
+      <c r="A396">
+        <v>1787</v>
+      </c>
+      <c r="B396" s="2">
+        <v>6490</v>
+      </c>
+      <c r="C396">
+        <v>8213</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="15">
+      <c r="A397">
+        <v>8335</v>
+      </c>
+      <c r="B397" s="2">
+        <v>4415</v>
+      </c>
+      <c r="C397">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="15">
+      <c r="A398">
+        <v>1960</v>
+      </c>
+      <c r="B398" s="2">
+        <v>7015</v>
+      </c>
+      <c r="C398">
+        <v>9419</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="15">
+      <c r="A399">
+        <v>7487</v>
+      </c>
+      <c r="B399" s="2">
+        <v>9149</v>
+      </c>
+      <c r="C399">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="15">
+      <c r="A400">
+        <v>2426</v>
+      </c>
+      <c r="B400" s="2">
+        <v>7238</v>
+      </c>
+      <c r="C400">
+        <v>6919</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15">
+      <c r="A401">
+        <v>4035</v>
+      </c>
+      <c r="B401" s="2">
+        <v>2215</v>
+      </c>
+      <c r="C401">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="15">
+      <c r="A402">
+        <v>7741</v>
+      </c>
+      <c r="B402" s="2">
+        <v>8998</v>
+      </c>
+      <c r="C402">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="15">
+      <c r="A403">
+        <v>4540</v>
+      </c>
+      <c r="B403" s="2">
+        <v>8315</v>
+      </c>
+      <c r="C403">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="15">
+      <c r="A404">
+        <v>6611</v>
+      </c>
+      <c r="B404" s="2">
+        <v>7577</v>
+      </c>
+      <c r="C404">
+        <v>9555</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="15">
+      <c r="A405">
+        <v>9537</v>
+      </c>
+      <c r="B405" s="2">
+        <v>5749</v>
+      </c>
+      <c r="C405">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15">
+      <c r="A406">
+        <v>8205</v>
+      </c>
+      <c r="B406" s="2">
+        <v>9892</v>
+      </c>
+      <c r="C406">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="15">
+      <c r="A407">
+        <v>3843</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2637</v>
+      </c>
+      <c r="C407">
+        <v>9702</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="15">
+      <c r="A408">
+        <v>3166</v>
+      </c>
+      <c r="B408" s="2">
+        <v>4278</v>
+      </c>
+      <c r="C408">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="15">
+      <c r="A409">
+        <v>3696</v>
+      </c>
+      <c r="B409" s="2">
+        <v>7225</v>
+      </c>
+      <c r="C409">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="15">
+      <c r="A410">
+        <v>6804</v>
+      </c>
+      <c r="B410" s="2">
+        <v>3001</v>
+      </c>
+      <c r="C410">
+        <v>7456</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15">
+      <c r="A411">
+        <v>7826</v>
+      </c>
+      <c r="B411" s="2">
+        <v>1909</v>
+      </c>
+      <c r="C411">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="15">
+      <c r="A412">
+        <v>9536</v>
+      </c>
+      <c r="B412" s="2">
+        <v>7301</v>
+      </c>
+      <c r="C412">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15">
+      <c r="A413">
+        <v>7436</v>
+      </c>
+      <c r="B413" s="2">
+        <v>9821</v>
+      </c>
+      <c r="C413">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15">
+      <c r="A414">
+        <v>8672</v>
+      </c>
+      <c r="B414" s="2">
+        <v>2767</v>
+      </c>
+      <c r="C414">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15">
+      <c r="A415">
+        <v>4466</v>
+      </c>
+      <c r="B415" s="2">
+        <v>1821</v>
+      </c>
+      <c r="C415">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15">
+      <c r="A416">
+        <v>6693</v>
+      </c>
+      <c r="B416" s="2">
+        <v>2963</v>
+      </c>
+      <c r="C416">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15">
+      <c r="A417">
+        <v>4090</v>
+      </c>
+      <c r="B417" s="2">
+        <v>8931</v>
+      </c>
+      <c r="C417">
+        <v>8179</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15">
+      <c r="A418">
+        <v>5627</v>
+      </c>
+      <c r="B418" s="2">
+        <v>1260</v>
+      </c>
+      <c r="C418">
+        <v>3278</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15">
+      <c r="A419">
+        <v>1245</v>
+      </c>
+      <c r="B419" s="2">
+        <v>7658</v>
+      </c>
+      <c r="C419">
+        <v>7258</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15">
+      <c r="A420">
+        <v>1800</v>
+      </c>
+      <c r="B420" s="2">
+        <v>8993</v>
+      </c>
+      <c r="C420">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15">
+      <c r="A421">
+        <v>7310</v>
+      </c>
+      <c r="B421" s="2">
+        <v>2160</v>
+      </c>
+      <c r="C421">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="15">
+      <c r="A422">
+        <v>7596</v>
+      </c>
+      <c r="B422" s="2">
+        <v>9228</v>
+      </c>
+      <c r="C422">
+        <v>4610</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15">
+      <c r="A423">
+        <v>6130</v>
+      </c>
+      <c r="B423" s="2">
+        <v>3775</v>
+      </c>
+      <c r="C423">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="15">
+      <c r="A424">
+        <v>2728</v>
+      </c>
+      <c r="B424" s="2">
+        <v>5643</v>
+      </c>
+      <c r="C424">
+        <v>9910</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="15">
+      <c r="A425">
+        <v>4440</v>
+      </c>
+      <c r="B425" s="2">
+        <v>7053</v>
+      </c>
+      <c r="C425">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="15">
+      <c r="A426">
+        <v>4244</v>
+      </c>
+      <c r="B426" s="2">
+        <v>1056</v>
+      </c>
+      <c r="C426">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="15">
+      <c r="A427">
+        <v>2647</v>
+      </c>
+      <c r="B427" s="2">
+        <v>9652</v>
+      </c>
+      <c r="C427">
+        <v>7816</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="15">
+      <c r="A428">
+        <v>2129</v>
+      </c>
+      <c r="B428" s="2">
+        <v>1639</v>
+      </c>
+      <c r="C428">
+        <v>8807</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="15">
+      <c r="A429">
+        <v>1726</v>
+      </c>
+      <c r="B429" s="2">
+        <v>5415</v>
+      </c>
+      <c r="C429">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="15">
+      <c r="A430">
+        <v>8920</v>
+      </c>
+      <c r="B430" s="2">
+        <v>7425</v>
+      </c>
+      <c r="C430">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="15">
+      <c r="A431">
+        <v>2198</v>
+      </c>
+      <c r="B431" s="2">
+        <v>5271</v>
+      </c>
+      <c r="C431">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="15">
+      <c r="A432">
+        <v>3747</v>
+      </c>
+      <c r="B432" s="2">
+        <v>8610</v>
+      </c>
+      <c r="C432">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="15">
+      <c r="A433">
+        <v>3016</v>
+      </c>
+      <c r="B433" s="2">
+        <v>5603</v>
+      </c>
+      <c r="C433">
+        <v>3369</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="15">
+      <c r="A434">
+        <v>5256</v>
+      </c>
+      <c r="B434" s="2">
+        <v>8419</v>
+      </c>
+      <c r="C434">
+        <v>8272</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="15">
+      <c r="A435">
+        <v>6349</v>
+      </c>
+      <c r="B435" s="2">
+        <v>5274</v>
+      </c>
+      <c r="C435">
+        <v>8116</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="15">
+      <c r="A436">
+        <v>3844</v>
+      </c>
+      <c r="B436" s="2">
+        <v>7106</v>
+      </c>
+      <c r="C436">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="15">
+      <c r="A437">
+        <v>1784</v>
+      </c>
+      <c r="B437" s="2">
+        <v>7932</v>
+      </c>
+      <c r="C437">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="15">
+      <c r="A438">
+        <v>1120</v>
+      </c>
+      <c r="B438" s="2">
+        <v>4744</v>
+      </c>
+      <c r="C438">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="15">
+      <c r="A439">
+        <v>8588</v>
+      </c>
+      <c r="B439" s="2">
+        <v>6360</v>
+      </c>
+      <c r="C439">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="15">
+      <c r="A440">
+        <v>5212</v>
+      </c>
+      <c r="B440" s="2">
+        <v>1234</v>
+      </c>
+      <c r="C440">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="15">
+      <c r="A441">
+        <v>5785</v>
+      </c>
+      <c r="B441" s="2">
+        <v>4020</v>
+      </c>
+      <c r="C441">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="15">
+      <c r="A442">
+        <v>5811</v>
+      </c>
+      <c r="B442" s="2">
+        <v>6850</v>
+      </c>
+      <c r="C442">
+        <v>7053</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="15">
+      <c r="A443">
+        <v>1761</v>
+      </c>
+      <c r="B443" s="2">
+        <v>7775</v>
+      </c>
+      <c r="C443">
+        <v>5690</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="15">
+      <c r="A444">
+        <v>6703</v>
+      </c>
+      <c r="B444" s="2">
+        <v>8427</v>
+      </c>
+      <c r="C444">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="15">
+      <c r="A445">
+        <v>3346</v>
+      </c>
+      <c r="B445" s="2">
+        <v>4928</v>
+      </c>
+      <c r="C445">
+        <v>5933</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="15">
+      <c r="A446">
+        <v>4407</v>
+      </c>
+      <c r="B446" s="2">
+        <v>8285</v>
+      </c>
+      <c r="C446">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="15">
+      <c r="A447">
+        <v>5116</v>
+      </c>
+      <c r="B447" s="2">
+        <v>8803</v>
+      </c>
+      <c r="C447">
+        <v>2904</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="15">
+      <c r="A448">
+        <v>3327</v>
+      </c>
+      <c r="B448" s="2">
+        <v>1742</v>
+      </c>
+      <c r="C448">
+        <v>7451</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="15">
+      <c r="A449">
+        <v>8224</v>
+      </c>
+      <c r="B449" s="2">
+        <v>7436</v>
+      </c>
+      <c r="C449">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="15">
+      <c r="A450">
+        <v>6480</v>
+      </c>
+      <c r="B450" s="2">
+        <v>6803</v>
+      </c>
+      <c r="C450">
+        <v>8965</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="15">
+      <c r="A451">
+        <v>8773</v>
+      </c>
+      <c r="B451" s="2">
+        <v>8896</v>
+      </c>
+      <c r="C451">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="15">
+      <c r="A452">
+        <v>3183</v>
+      </c>
+      <c r="B452" s="2">
+        <v>7935</v>
+      </c>
+      <c r="C452">
+        <v>8616</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="15">
+      <c r="A453">
+        <v>1064</v>
+      </c>
+      <c r="B453" s="2">
+        <v>5449</v>
+      </c>
+      <c r="C453">
+        <v>8891</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="15">
+      <c r="A454">
+        <v>1770</v>
+      </c>
+      <c r="B454" s="2">
+        <v>5484</v>
+      </c>
+      <c r="C454">
+        <v>9426</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="15">
+      <c r="A455">
+        <v>7726</v>
+      </c>
+      <c r="B455" s="2">
+        <v>3820</v>
+      </c>
+      <c r="C455">
+        <v>9910</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="15">
+      <c r="A456">
+        <v>1716</v>
+      </c>
+      <c r="B456" s="2">
+        <v>9723</v>
+      </c>
+      <c r="C456">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="15">
+      <c r="A457">
+        <v>6739</v>
+      </c>
+      <c r="B457" s="2">
+        <v>9936</v>
+      </c>
+      <c r="C457">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="15">
+      <c r="A458">
+        <v>3451</v>
+      </c>
+      <c r="B458" s="2">
+        <v>7951</v>
+      </c>
+      <c r="C458">
+        <v>9691</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="15">
+      <c r="A459">
+        <v>3773</v>
+      </c>
+      <c r="B459" s="2">
+        <v>1731</v>
+      </c>
+      <c r="C459">
+        <v>5686</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="15">
+      <c r="A460">
+        <v>5879</v>
+      </c>
+      <c r="B460" s="2">
+        <v>9050</v>
+      </c>
+      <c r="C460">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="15">
+      <c r="A461">
+        <v>3347</v>
+      </c>
+      <c r="B461" s="2">
+        <v>5036</v>
+      </c>
+      <c r="C461">
+        <v>3267</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="15">
+      <c r="A462">
+        <v>3504</v>
+      </c>
+      <c r="B462" s="2">
+        <v>9334</v>
+      </c>
+      <c r="C462">
+        <v>4205</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="15">
+      <c r="A463">
+        <v>7166</v>
+      </c>
+      <c r="B463" s="2">
+        <v>9016</v>
+      </c>
+      <c r="C463">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="15">
+      <c r="A464">
+        <v>6221</v>
+      </c>
+      <c r="B464" s="2">
+        <v>4959</v>
+      </c>
+      <c r="C464">
+        <v>9280</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="15">
+      <c r="A465">
+        <v>3878</v>
+      </c>
+      <c r="B465" s="2">
+        <v>9165</v>
+      </c>
+      <c r="C465">
+        <v>6227</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="15">
+      <c r="A466">
+        <v>5647</v>
+      </c>
+      <c r="B466" s="2">
+        <v>5018</v>
+      </c>
+      <c r="C466">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="15">
+      <c r="A467">
+        <v>5740</v>
+      </c>
+      <c r="B467" s="2">
+        <v>2687</v>
+      </c>
+      <c r="C467">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="15">
+      <c r="A468">
+        <v>3572</v>
+      </c>
+      <c r="B468" s="2">
+        <v>3761</v>
+      </c>
+      <c r="C468">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="15">
+      <c r="A469">
+        <v>5666</v>
+      </c>
+      <c r="B469" s="2">
+        <v>6799</v>
+      </c>
+      <c r="C469">
+        <v>5701</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="15">
+      <c r="A470">
+        <v>1730</v>
+      </c>
+      <c r="B470" s="2">
+        <v>2842</v>
+      </c>
+      <c r="C470">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="15">
+      <c r="A471">
+        <v>3190</v>
+      </c>
+      <c r="B471" s="2">
+        <v>9988</v>
+      </c>
+      <c r="C471">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="15">
+      <c r="A472">
+        <v>7245</v>
+      </c>
+      <c r="B472" s="2">
+        <v>2236</v>
+      </c>
+      <c r="C472">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="15">
+      <c r="A473">
+        <v>4195</v>
+      </c>
+      <c r="B473" s="2">
+        <v>6925</v>
+      </c>
+      <c r="C473">
+        <v>8904</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="15">
+      <c r="A474">
+        <v>6731</v>
+      </c>
+      <c r="B474" s="2">
+        <v>6986</v>
+      </c>
+      <c r="C474">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="15">
+      <c r="A475">
+        <v>5491</v>
+      </c>
+      <c r="B475" s="2">
+        <v>8755</v>
+      </c>
+      <c r="C475">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="15">
+      <c r="A476">
+        <v>8112</v>
+      </c>
+      <c r="B476" s="2">
+        <v>3164</v>
+      </c>
+      <c r="C476">
+        <v>7627</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="15">
+      <c r="A477">
+        <v>5399</v>
+      </c>
+      <c r="B477" s="2">
+        <v>1972</v>
+      </c>
+      <c r="C477">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="15">
+      <c r="A478">
+        <v>7696</v>
+      </c>
+      <c r="B478" s="2">
+        <v>2178</v>
+      </c>
+      <c r="C478">
+        <v>5751</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="15">
+      <c r="A479">
+        <v>7463</v>
+      </c>
+      <c r="B479" s="2">
+        <v>5313</v>
+      </c>
+      <c r="C479">
+        <v>8575</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="15">
+      <c r="A480">
+        <v>4654</v>
+      </c>
+      <c r="B480" s="2">
+        <v>8508</v>
+      </c>
+      <c r="C480">
+        <v>7862</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="15">
+      <c r="A481">
+        <v>5204</v>
+      </c>
+      <c r="B481" s="2">
+        <v>5807</v>
+      </c>
+      <c r="C481">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="15">
+      <c r="A482">
+        <v>1911</v>
+      </c>
+      <c r="B482" s="2">
+        <v>1135</v>
+      </c>
+      <c r="C482">
+        <v>9885</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="15">
+      <c r="A483">
+        <v>9868</v>
+      </c>
+      <c r="B483" s="2">
+        <v>1682</v>
+      </c>
+      <c r="C483">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="15">
+      <c r="A484">
+        <v>2556</v>
+      </c>
+      <c r="B484" s="2">
+        <v>5126</v>
+      </c>
+      <c r="C484">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="15">
+      <c r="A485">
+        <v>6745</v>
+      </c>
+      <c r="B485" s="2">
+        <v>3460</v>
+      </c>
+      <c r="C485">
+        <v>9531</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="15">
+      <c r="A486">
+        <v>3965</v>
+      </c>
+      <c r="B486" s="2">
+        <v>2866</v>
+      </c>
+      <c r="C486">
+        <v>6333</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="15">
+      <c r="A487">
+        <v>5749</v>
+      </c>
+      <c r="B487" s="2">
+        <v>8774</v>
+      </c>
+      <c r="C487">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="15">
+      <c r="A488">
+        <v>5171</v>
+      </c>
+      <c r="B488" s="2">
+        <v>4520</v>
+      </c>
+      <c r="C488">
+        <v>7383</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="15">
+      <c r="A489"/>
+    </row>
+    <row r="490" spans="1:3" ht="15">
+      <c r="A490"/>
+    </row>
+    <row r="491" spans="1:3" ht="15">
+      <c r="A491"/>
+    </row>
+    <row r="492" spans="1:3" ht="15">
+      <c r="A492"/>
+    </row>
+    <row r="493" spans="1:3" ht="15">
+      <c r="A493"/>
+    </row>
+    <row r="494" spans="1:3" ht="15">
+      <c r="A494"/>
+    </row>
+    <row r="495" spans="1:3" ht="15">
+      <c r="A495"/>
+    </row>
+    <row r="496" spans="1:3" ht="15">
+      <c r="A496"/>
+    </row>
+    <row r="497" spans="1:1" ht="15">
+      <c r="A497"/>
+    </row>
+    <row r="498" spans="1:1" ht="15">
+      <c r="A498"/>
+    </row>
+    <row r="499" spans="1:1" ht="15">
+      <c r="A499"/>
+    </row>
+    <row r="500" spans="1:1" ht="15">
+      <c r="A500"/>
+    </row>
+    <row r="501" spans="1:1" ht="15">
+      <c r="A501"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
